--- a/src/main/resources/Login.xlsx
+++ b/src/main/resources/Login.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sandra/Documents/GitHub/ProgramacionDeVanguardia/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C259A392-6AB2-344A-845B-7D5252554061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD060012-A221-5D49-9193-0B005B2FC630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15820" xr2:uid="{AF311A50-7877-6C43-A607-A64351B5B3FB}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15800" xr2:uid="{AF311A50-7877-6C43-A607-A64351B5B3FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Entrenador</t>
   </si>
@@ -54,6 +54,18 @@
   </si>
   <si>
     <t>julietasuarez@gmail.com</t>
+  </si>
+  <si>
+    <t>PEREZ JUAN</t>
+  </si>
+  <si>
+    <t>GIMENEZ ZAIRA</t>
+  </si>
+  <si>
+    <t>SUAREZ JULIETA</t>
+  </si>
+  <si>
+    <t>SANCHEZ ROBERTO</t>
   </si>
 </sst>
 </file>
@@ -416,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02C085E0-EFE8-7646-9997-431DFF2AA638}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -428,7 +440,7 @@
     <col min="2" max="2" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -438,8 +450,11 @@
       <c r="C1" t="s">
         <v>0</v>
       </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -449,8 +464,11 @@
       <c r="C2" t="s">
         <v>1</v>
       </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -460,8 +478,11 @@
       <c r="C3" t="s">
         <v>0</v>
       </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -470,6 +491,9 @@
       </c>
       <c r="C4" t="s">
         <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
